--- a/qdt/pbm-sheet-32x32.xlsx
+++ b/qdt/pbm-sheet-32x32.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahamid/Documents/berry/24fall/csc101/csc101-fall2024-repo/qdt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahamid/Documents/berry/24fall/csc101/csc101-repo-fall2024/qdt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE0AE2-4B69-B647-8BB5-92D0B3981A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D134C-95FC-D04C-A342-7B7AA294DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="3420" windowWidth="27240" windowHeight="16440" xr2:uid="{E77D8AF5-117D-504D-A53D-0B529D4B328B}"/>
   </bookViews>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -201,7 +201,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +539,7 @@
   <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,17 +781,17 @@
       <c r="AF6" s="1">
         <v>0</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" t="s">
         <v>10</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="s">
         <v>7</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -1384,28 +1383,28 @@
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" s="4">
@@ -1485,28 +1484,28 @@
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="4">
@@ -1586,28 +1585,28 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="4">
@@ -1684,28 +1683,28 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="4">
@@ -1782,28 +1781,28 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" s="4">
@@ -1880,28 +1879,28 @@
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" s="4">
@@ -1978,28 +1977,28 @@
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" s="4">
@@ -2076,28 +2075,28 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>0</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" s="4">
@@ -2389,7 +2388,7 @@
       <c r="AJ22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AK22" s="10" t="s">
+      <c r="AK22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3054,28 +3053,28 @@
       <c r="X29" s="6">
         <v>0</v>
       </c>
-      <c r="Y29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="10">
+      <c r="Y29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3152,28 +3151,28 @@
       <c r="X30" s="6">
         <v>0</v>
       </c>
-      <c r="Y30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="10">
+      <c r="Y30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3250,28 +3249,28 @@
       <c r="X31" s="6">
         <v>0</v>
       </c>
-      <c r="Y31" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="10">
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3348,28 +3347,28 @@
       <c r="X32" s="6">
         <v>0</v>
       </c>
-      <c r="Y32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="10">
+      <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3446,28 +3445,28 @@
       <c r="X33" s="6">
         <v>1</v>
       </c>
-      <c r="Y33" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="10">
+      <c r="Y33" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3544,28 +3543,28 @@
       <c r="X34" s="6">
         <v>1</v>
       </c>
-      <c r="Y34" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="10">
+      <c r="Y34" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3642,28 +3641,28 @@
       <c r="X35" s="6">
         <v>1</v>
       </c>
-      <c r="Y35" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="10">
+      <c r="Y35" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3740,28 +3739,28 @@
       <c r="X36" s="6">
         <v>1</v>
       </c>
-      <c r="Y36" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="10">
+      <c r="Y36" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="9">
         <v>1</v>
       </c>
     </row>
